--- a/backend/data/site_info.xlsx
+++ b/backend/data/site_info.xlsx
@@ -397,29 +397,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Network</v>
+        <v>NETWORK</v>
       </c>
       <c r="B1" t="str">
-        <v>DC Type</v>
+        <v>DC_TYPE</v>
       </c>
       <c r="C1" t="str">
-        <v>Sub Type</v>
+        <v>SUB_TYPE</v>
       </c>
       <c r="D1" t="str">
-        <v>DC Number</v>
+        <v>DC_NUMBER</v>
       </c>
       <c r="E1" t="str">
-        <v>City</v>
+        <v>CITY</v>
       </c>
       <c r="F1" t="str">
-        <v>State</v>
+        <v>STATE</v>
       </c>
     </row>
     <row r="2">
@@ -433,158 +433,18 @@
         <v>Batch</v>
       </c>
       <c r="D2" t="str">
-        <v>1111</v>
+        <v>6011</v>
       </c>
       <c r="E2" t="str">
         <v>Brookhaven</v>
       </c>
       <c r="F2" t="str">
         <v>MS - Mississippi</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Grocery</v>
-      </c>
-      <c r="B3" t="str">
-        <v>GDC</v>
-      </c>
-      <c r="C3" t="str">
-        <v>PDC</v>
-      </c>
-      <c r="D3" t="str">
-        <v>2222</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Dallas</v>
-      </c>
-      <c r="F3" t="str">
-        <v>TX - Texas</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Fulfillment</v>
-      </c>
-      <c r="B4" t="str">
-        <v>FC</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Fashion</v>
-      </c>
-      <c r="D4" t="str">
-        <v>3333</v>
-      </c>
-      <c r="E4" t="str">
-        <v>Laurens</v>
-      </c>
-      <c r="F4" t="str">
-        <v>SC - South Carolina</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Ambient</v>
-      </c>
-      <c r="B5" t="str">
-        <v>RDC</v>
-      </c>
-      <c r="C5" t="str">
-        <v>DPS</v>
-      </c>
-      <c r="D5" t="str">
-        <v>4444</v>
-      </c>
-      <c r="E5" t="str">
-        <v>Buckeye</v>
-      </c>
-      <c r="F5" t="str">
-        <v>AZ - Arizona</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>ABCD</v>
-      </c>
-      <c r="B6" t="str">
-        <v>ABCD</v>
-      </c>
-      <c r="C6" t="str">
-        <v>ABCD</v>
-      </c>
-      <c r="D6" t="str">
-        <v>77777</v>
-      </c>
-      <c r="E6" t="str">
-        <v>ABCDEFGH</v>
-      </c>
-      <c r="F6" t="str">
-        <v>AL - Alabama</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Test</v>
-      </c>
-      <c r="B7" t="str">
-        <v>TDC</v>
-      </c>
-      <c r="C7" t="str">
-        <v>TTDC</v>
-      </c>
-      <c r="D7" t="str">
-        <v>9876</v>
-      </c>
-      <c r="E7" t="str">
-        <v>Test City</v>
-      </c>
-      <c r="F7" t="str">
-        <v>MO - Missouri</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Ambient</v>
-      </c>
-      <c r="B8" t="str">
-        <v>RDC</v>
-      </c>
-      <c r="C8" t="str">
-        <v>Batch</v>
-      </c>
-      <c r="D8" t="str">
-        <v>1234</v>
-      </c>
-      <c r="E8" t="str">
-        <v>Jackson</v>
-      </c>
-      <c r="F8" t="str">
-        <v>MS - Mississippi</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>Ambient</v>
-      </c>
-      <c r="B9" t="str">
-        <v>RDC</v>
-      </c>
-      <c r="C9" t="str">
-        <v>Batch</v>
-      </c>
-      <c r="D9" t="str">
-        <v>111111111</v>
-      </c>
-      <c r="E9" t="str">
-        <v>Mex</v>
-      </c>
-      <c r="F9" t="str">
-        <v>TX - Texas</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F2"/>
   </ignoredErrors>
 </worksheet>
 </file>